--- a/SolarLab/data/profiles/UKERC/AllProfileClasses.xlsx
+++ b/SolarLab/data/profiles/UKERC/AllProfileClasses.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\RSpace\RE_Community\SolarLab\UKERC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Rspace\RE_Community\SolarLab\data\profiles\UKERC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8148" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="10" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="ProfileClass 7" sheetId="6" r:id="rId8"/>
     <sheet name="Profile Class 8" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="101716"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="68">
   <si>
     <t>Aut Wd</t>
   </si>
@@ -186,6 +186,51 @@
   </si>
   <si>
     <t xml:space="preserve">the clock change from GMT to BST in March; </t>
+  </si>
+  <si>
+    <t>AutWd</t>
+  </si>
+  <si>
+    <t>AutSat</t>
+  </si>
+  <si>
+    <t>AutSun</t>
+  </si>
+  <si>
+    <t>HsrWd</t>
+  </si>
+  <si>
+    <t>HsrSat</t>
+  </si>
+  <si>
+    <t>HsrSun</t>
+  </si>
+  <si>
+    <t>SmrWd</t>
+  </si>
+  <si>
+    <t>SmrSat</t>
+  </si>
+  <si>
+    <t>SmrSun</t>
+  </si>
+  <si>
+    <t>SprWd</t>
+  </si>
+  <si>
+    <t>SprSat</t>
+  </si>
+  <si>
+    <t>SprSun</t>
+  </si>
+  <si>
+    <t>WtrWd</t>
+  </si>
+  <si>
+    <t>WtrSat</t>
+  </si>
+  <si>
+    <t>WtrSun</t>
   </si>
 </sst>
 </file>
@@ -517,18 +562,18 @@
   </sheetPr>
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:AA7"/>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -536,7 +581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -586,7 +631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -639,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -647,15 +692,75 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M9" t="str">
+        <f>REPLACE(M7,4,1,"")</f>
+        <v>AutWd</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9:AA9" si="0">REPLACE(N7,4,1,"")</f>
+        <v>AutSat</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>AutSun</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>HsrWd</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>HsrSat</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>HsrSun</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
+        <v>SmrWd</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="0"/>
+        <v>SmrSat</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="0"/>
+        <v>SmrSun</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="0"/>
+        <v>SprWd</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="0"/>
+        <v>SprSat</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="0"/>
+        <v>SprSun</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
+        <v>WtrWd</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="0"/>
+        <v>WtrSat</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>WtrSun</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -663,7 +768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -671,7 +776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -679,7 +784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -687,7 +792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -695,17 +800,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -713,7 +818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -721,7 +826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -729,17 +834,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -747,12 +852,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -760,12 +865,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -773,12 +878,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -786,12 +891,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -799,17 +904,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
@@ -823,12 +928,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -839,15 +944,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -894,57 +999,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -994,7 +1099,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -1044,7 +1149,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6.25E-2</v>
       </c>
@@ -1094,7 +1199,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1144,7 +1249,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -1194,7 +1299,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.125</v>
       </c>
@@ -1244,7 +1349,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -1294,7 +1399,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1344,7 +1449,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.1875</v>
       </c>
@@ -1394,7 +1499,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1444,7 +1549,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -1494,7 +1599,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.25</v>
       </c>
@@ -1544,7 +1649,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -1594,7 +1699,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -1644,7 +1749,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.3125</v>
       </c>
@@ -1694,7 +1799,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -1744,7 +1849,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1794,7 +1899,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.375</v>
       </c>
@@ -1844,7 +1949,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -1894,7 +1999,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -1944,7 +2049,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.4375</v>
       </c>
@@ -1994,7 +2099,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -2044,7 +2149,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -2094,7 +2199,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.5</v>
       </c>
@@ -2144,7 +2249,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -2194,7 +2299,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -2244,7 +2349,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.5625</v>
       </c>
@@ -2294,7 +2399,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -2344,7 +2449,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -2394,7 +2499,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.625</v>
       </c>
@@ -2443,8 +2548,12 @@
       <c r="P32">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S32">
+        <f>MAX(B3:P50)</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -2494,7 +2603,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -2544,7 +2653,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.6875</v>
       </c>
@@ -2594,7 +2703,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2644,7 +2753,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -2694,7 +2803,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.75</v>
       </c>
@@ -2744,7 +2853,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -2794,7 +2903,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -2844,7 +2953,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.8125</v>
       </c>
@@ -2894,7 +3003,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -2944,7 +3053,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -2994,7 +3103,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.875</v>
       </c>
@@ -3044,7 +3153,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -3094,7 +3203,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -3144,7 +3253,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.9375</v>
       </c>
@@ -3194,7 +3303,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -3244,7 +3353,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -3294,7 +3403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -3355,11 +3464,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -3459,7 +3570,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3509,7 +3620,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.25E-2</v>
       </c>
@@ -3559,7 +3670,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -3609,7 +3720,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -3659,7 +3770,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
@@ -3709,7 +3820,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -3759,7 +3870,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -3809,7 +3920,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.1875</v>
       </c>
@@ -3859,7 +3970,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -3909,7 +4020,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -3959,7 +4070,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.25</v>
       </c>
@@ -4009,7 +4120,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -4059,7 +4170,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -4109,7 +4220,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.3125</v>
       </c>
@@ -4159,7 +4270,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -4209,7 +4320,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -4259,7 +4370,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.375</v>
       </c>
@@ -4309,7 +4420,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -4359,7 +4470,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -4409,7 +4520,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.4375</v>
       </c>
@@ -4459,7 +4570,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -4509,7 +4620,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -4559,7 +4670,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.5</v>
       </c>
@@ -4609,7 +4720,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -4659,7 +4770,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4709,7 +4820,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.5625</v>
       </c>
@@ -4759,7 +4870,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4809,7 +4920,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -4859,7 +4970,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -4909,7 +5020,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -4959,7 +5070,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5009,7 +5120,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.6875</v>
       </c>
@@ -5059,7 +5170,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5109,7 +5220,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -5159,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -5209,7 +5320,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -5259,7 +5370,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -5309,7 +5420,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.8125</v>
       </c>
@@ -5359,7 +5470,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -5409,7 +5520,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -5459,7 +5570,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.875</v>
       </c>
@@ -5509,7 +5620,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -5559,7 +5670,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -5609,7 +5720,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.9375</v>
       </c>
@@ -5659,7 +5770,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -5709,7 +5820,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -5759,7 +5870,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -5822,9 +5933,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5874,7 +5985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -5924,7 +6035,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5974,7 +6085,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.25E-2</v>
       </c>
@@ -6024,7 +6135,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -6074,7 +6185,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -6124,7 +6235,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
@@ -6174,7 +6285,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -6224,7 +6335,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -6274,7 +6385,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.1875</v>
       </c>
@@ -6324,7 +6435,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -6374,7 +6485,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -6424,7 +6535,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.25</v>
       </c>
@@ -6474,7 +6585,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -6524,7 +6635,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -6574,7 +6685,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.3125</v>
       </c>
@@ -6624,7 +6735,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -6674,7 +6785,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -6724,7 +6835,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.375</v>
       </c>
@@ -6774,7 +6885,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -6824,7 +6935,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -6874,7 +6985,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.4375</v>
       </c>
@@ -6924,7 +7035,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -6974,7 +7085,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -7024,7 +7135,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.5</v>
       </c>
@@ -7074,7 +7185,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -7124,7 +7235,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -7174,7 +7285,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.5625</v>
       </c>
@@ -7224,7 +7335,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -7274,7 +7385,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -7324,7 +7435,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -7374,7 +7485,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -7424,7 +7535,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -7474,7 +7585,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.6875</v>
       </c>
@@ -7524,7 +7635,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -7574,7 +7685,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -7624,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -7674,7 +7785,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -7724,7 +7835,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -7774,7 +7885,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.8125</v>
       </c>
@@ -7824,7 +7935,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -7874,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -7924,7 +8035,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.875</v>
       </c>
@@ -7974,7 +8085,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -8024,7 +8135,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -8074,7 +8185,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.9375</v>
       </c>
@@ -8124,7 +8235,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -8174,7 +8285,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -8224,7 +8335,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -8287,9 +8398,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8339,7 +8450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -8389,7 +8500,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -8439,7 +8550,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.25E-2</v>
       </c>
@@ -8489,7 +8600,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -8539,7 +8650,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -8589,7 +8700,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
@@ -8639,7 +8750,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -8689,7 +8800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -8739,7 +8850,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.1875</v>
       </c>
@@ -8789,7 +8900,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -8839,7 +8950,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -8889,7 +9000,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.25</v>
       </c>
@@ -8939,7 +9050,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -8989,7 +9100,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -9039,7 +9150,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.3125</v>
       </c>
@@ -9089,7 +9200,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -9139,7 +9250,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -9189,7 +9300,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.375</v>
       </c>
@@ -9239,7 +9350,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -9289,7 +9400,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -9339,7 +9450,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.4375</v>
       </c>
@@ -9389,7 +9500,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -9439,7 +9550,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -9489,7 +9600,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.5</v>
       </c>
@@ -9539,7 +9650,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -9589,7 +9700,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -9639,7 +9750,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.5625</v>
       </c>
@@ -9689,7 +9800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -9739,7 +9850,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -9789,7 +9900,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -9839,7 +9950,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -9889,7 +10000,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -9939,7 +10050,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.6875</v>
       </c>
@@ -9989,7 +10100,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -10039,7 +10150,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -10089,7 +10200,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -10139,7 +10250,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -10189,7 +10300,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -10239,7 +10350,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.8125</v>
       </c>
@@ -10289,7 +10400,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -10339,7 +10450,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -10389,7 +10500,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.875</v>
       </c>
@@ -10439,7 +10550,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -10489,7 +10600,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -10539,7 +10650,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.9375</v>
       </c>
@@ -10589,7 +10700,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -10639,7 +10750,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -10689,7 +10800,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -10752,9 +10863,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10804,7 +10915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -10854,7 +10965,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -10904,7 +11015,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.25E-2</v>
       </c>
@@ -10954,7 +11065,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -11004,7 +11115,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -11054,7 +11165,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
@@ -11104,7 +11215,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -11154,7 +11265,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -11204,7 +11315,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.1875</v>
       </c>
@@ -11254,7 +11365,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -11304,7 +11415,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -11354,7 +11465,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.25</v>
       </c>
@@ -11404,7 +11515,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -11454,7 +11565,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -11504,7 +11615,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.3125</v>
       </c>
@@ -11554,7 +11665,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -11604,7 +11715,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -11654,7 +11765,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.375</v>
       </c>
@@ -11704,7 +11815,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -11754,7 +11865,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -11804,7 +11915,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.4375</v>
       </c>
@@ -11854,7 +11965,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -11904,7 +12015,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -11954,7 +12065,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.5</v>
       </c>
@@ -12004,7 +12115,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -12054,7 +12165,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -12104,7 +12215,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.5625</v>
       </c>
@@ -12154,7 +12265,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -12204,7 +12315,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -12254,7 +12365,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -12304,7 +12415,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -12354,7 +12465,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -12404,7 +12515,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.6875</v>
       </c>
@@ -12454,7 +12565,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -12504,7 +12615,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -12554,7 +12665,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -12604,7 +12715,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -12654,7 +12765,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -12704,7 +12815,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.8125</v>
       </c>
@@ -12754,7 +12865,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -12804,7 +12915,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -12854,7 +12965,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.875</v>
       </c>
@@ -12904,7 +13015,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -12954,7 +13065,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -13004,7 +13115,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.9375</v>
       </c>
@@ -13054,7 +13165,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -13104,7 +13215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -13154,7 +13265,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -13217,9 +13328,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -13269,7 +13380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -13319,7 +13430,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -13369,7 +13480,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.25E-2</v>
       </c>
@@ -13419,7 +13530,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -13469,7 +13580,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -13519,7 +13630,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
@@ -13569,7 +13680,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -13619,7 +13730,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -13669,7 +13780,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.1875</v>
       </c>
@@ -13719,7 +13830,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -13769,7 +13880,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -13819,7 +13930,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.25</v>
       </c>
@@ -13869,7 +13980,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -13919,7 +14030,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -13969,7 +14080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.3125</v>
       </c>
@@ -14019,7 +14130,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -14069,7 +14180,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -14119,7 +14230,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.375</v>
       </c>
@@ -14169,7 +14280,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -14219,7 +14330,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -14269,7 +14380,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.4375</v>
       </c>
@@ -14319,7 +14430,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -14369,7 +14480,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -14419,7 +14530,7 @@
         <v>10.34</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.5</v>
       </c>
@@ -14469,7 +14580,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -14519,7 +14630,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -14569,7 +14680,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.5625</v>
       </c>
@@ -14619,7 +14730,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -14669,7 +14780,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -14719,7 +14830,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -14769,7 +14880,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -14819,7 +14930,7 @@
         <v>9.7899999999999991</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -14869,7 +14980,7 @@
         <v>9.56</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.6875</v>
       </c>
@@ -14919,7 +15030,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -14969,7 +15080,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -15019,7 +15130,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -15069,7 +15180,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -15119,7 +15230,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -15169,7 +15280,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.8125</v>
       </c>
@@ -15219,7 +15330,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -15269,7 +15380,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -15319,7 +15430,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.875</v>
       </c>
@@ -15369,7 +15480,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -15419,7 +15530,7 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -15469,7 +15580,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.9375</v>
       </c>
@@ -15519,7 +15630,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -15569,7 +15680,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -15619,7 +15730,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -15682,9 +15793,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -15734,7 +15845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -15784,7 +15895,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -15834,7 +15945,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.25E-2</v>
       </c>
@@ -15884,7 +15995,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -15934,7 +16045,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -15984,7 +16095,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
@@ -16034,7 +16145,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -16084,7 +16195,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -16134,7 +16245,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.1875</v>
       </c>
@@ -16184,7 +16295,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -16234,7 +16345,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -16284,7 +16395,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.25</v>
       </c>
@@ -16334,7 +16445,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -16384,7 +16495,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -16434,7 +16545,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.3125</v>
       </c>
@@ -16484,7 +16595,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -16534,7 +16645,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -16584,7 +16695,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.375</v>
       </c>
@@ -16634,7 +16745,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -16684,7 +16795,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -16734,7 +16845,7 @@
         <v>13.49</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.4375</v>
       </c>
@@ -16784,7 +16895,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -16834,7 +16945,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -16884,7 +16995,7 @@
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.5</v>
       </c>
@@ -16934,7 +17045,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -16984,7 +17095,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -17034,7 +17145,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.5625</v>
       </c>
@@ -17084,7 +17195,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -17134,7 +17245,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -17184,7 +17295,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -17234,7 +17345,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -17284,7 +17395,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -17334,7 +17445,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.6875</v>
       </c>
@@ -17384,7 +17495,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -17434,7 +17545,7 @@
         <v>16.11</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -17484,7 +17595,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -17534,7 +17645,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -17584,7 +17695,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -17634,7 +17745,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.8125</v>
       </c>
@@ -17684,7 +17795,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -17734,7 +17845,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -17784,7 +17895,7 @@
         <v>12.74</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.875</v>
       </c>
@@ -17834,7 +17945,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -17884,7 +17995,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -17934,7 +18045,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.9375</v>
       </c>
@@ -17984,7 +18095,7 @@
         <v>11.46</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -18034,7 +18145,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -18084,7 +18195,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -18147,9 +18258,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -18199,7 +18310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -18249,7 +18360,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -18299,7 +18410,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.25E-2</v>
       </c>
@@ -18349,7 +18460,7 @@
         <v>16.93</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -18399,7 +18510,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -18449,7 +18560,7 @@
         <v>16.14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
@@ -18499,7 +18610,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -18549,7 +18660,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -18599,7 +18710,7 @@
         <v>15.77</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.1875</v>
       </c>
@@ -18649,7 +18760,7 @@
         <v>15.71</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -18699,7 +18810,7 @@
         <v>15.74</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -18749,7 +18860,7 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.25</v>
       </c>
@@ -18799,7 +18910,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -18849,7 +18960,7 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -18899,7 +19010,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.3125</v>
       </c>
@@ -18949,7 +19060,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -18999,7 +19110,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -19049,7 +19160,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.375</v>
       </c>
@@ -19099,7 +19210,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -19149,7 +19260,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -19199,7 +19310,7 @@
         <v>22.14</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.4375</v>
       </c>
@@ -19249,7 +19360,7 @@
         <v>22.81</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -19299,7 +19410,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -19349,7 +19460,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.5</v>
       </c>
@@ -19399,7 +19510,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -19449,7 +19560,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -19499,7 +19610,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.5625</v>
       </c>
@@ -19549,7 +19660,7 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -19599,7 +19710,7 @@
         <v>24.02</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -19649,7 +19760,7 @@
         <v>23.74</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.625</v>
       </c>
@@ -19699,7 +19810,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -19749,7 +19860,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -19799,7 +19910,7 @@
         <v>23.16</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.6875</v>
       </c>
@@ -19849,7 +19960,7 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -19899,7 +20010,7 @@
         <v>22.81</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -19949,7 +20060,7 @@
         <v>22.53</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.75</v>
       </c>
@@ -19999,7 +20110,7 @@
         <v>22.27</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -20049,7 +20160,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -20099,7 +20210,7 @@
         <v>22.06</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.8125</v>
       </c>
@@ -20149,7 +20260,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -20199,7 +20310,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -20249,7 +20360,7 @@
         <v>21.55</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.875</v>
       </c>
@@ -20299,7 +20410,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -20349,7 +20460,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -20399,7 +20510,7 @@
         <v>20.68</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.9375</v>
       </c>
@@ -20449,7 +20560,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -20499,7 +20610,7 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -20549,7 +20660,7 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
